--- a/medicine/Enfance/Les_Trois_Petites_Sœurs/Les_Trois_Petites_Sœurs.xlsx
+++ b/medicine/Enfance/Les_Trois_Petites_Sœurs/Les_Trois_Petites_Sœurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Trois_Petites_S%C5%93urs</t>
+          <t>Les_Trois_Petites_Sœurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trois Petites Sœurs (en catalan Les tres bessones, littéralement « Les Triplées », et en espagnol Las tres mellizas) est une série espagnole d'albums de jeunesse créée par Roser Capdevila en 1983. Traduite en 35 langues, cette série a aussi connu une adaptation en série animée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Trois_Petites_S%C5%93urs</t>
+          <t>Les_Trois_Petites_Sœurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,96 +523,239 @@
           <t>Adaptation en série d'animation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En Catalogne, la série a été diffusée de 1997 à 2003 sur TV3.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Catalogne, la série a été diffusée de 1997 à 2003 sur TV3.
 En France, la série a été diffusée sur France 3 dans l'émission Les Minikeums, TO3, France Truc et Toowam, sur France 5 dans l'émission Midi les Zouzous, sur TiJi et sur Canal J ; et au Québec à partir du 8 septembre 1997 sur Télétoon.
-Doublage
-Voix originales
-Teresa Soler : Ana
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Adaptation en série d'animation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Teresa Soler : Ana
 Mònica Padròs : Teresa
 Marta Barbarà : Elena
 Elsa Fábregas : la sorcière Camomille
-Jordi Vila : le hibou
-Voix françaises
-Patricia Legrand : Anna
+Jordi Vila : le hibou</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Adaptation en série d'animation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Patricia Legrand : Anna
 Sylvie Jacob : Helena
 Annabelle Roux : Thérésa
-Julie Carli[1], Blanche Ravalec : la sorcière Camomille
+Julie Carli, Blanche Ravalec : la sorcière Camomille
 Francette Vernillat, Olivier Korol : voix additionnelles
 Version française
-Studio de doublage : Dub'Club[2]
+Studio de doublage : Dub'Club
 Direction artistique : ?
 Adaptation : Laurence Salva</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Les_Trois_Petites_S%C5%93urs</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Anna, Hélèna et Térésa sont des triplettes qui, chaque fois qu'elles commettent un méfait, sont punies par la sorcière Camomille, qui les envoie dans diverses histoires ou événements de l'histoire pour qu'elles apprennent. Elles doivent alors aider les personnages de l'histoire si elles veulent en sortir sans se faire piéger, objectif principal de la sorcière. Térésa, la plus rusée des triplées, parvient toujours à sauver la situation et à échapper à la sorcière grâce à des supercheries.
-Personnages
-Térésa - Elle est la sœur avec le ruban rose. Elle est la triplée la plus aventureuse et propose les idées les plus ambitieuses, mais elle n'est pas nécessairement la leader.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anna, Hélèna et Térésa sont des triplettes qui, chaque fois qu'elles commettent un méfait, sont punies par la sorcière Camomille, qui les envoie dans diverses histoires ou événements de l'histoire pour qu'elles apprennent. Elles doivent alors aider les personnages de l'histoire si elles veulent en sortir sans se faire piéger, objectif principal de la sorcière. Térésa, la plus rusée des triplées, parvient toujours à sauver la situation et à échapper à la sorcière grâce à des supercheries.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Térésa - Elle est la sœur avec le ruban rose. Elle est la triplée la plus aventureuse et propose les idées les plus ambitieuses, mais elle n'est pas nécessairement la leader.
 Anna - Elle est la sœur avec le ruban bleu. Elle est décontractée et plus paisible que ses sœurs. Elle est également assez curieuse. Anna a tendance à être parfois un peu romantique.
 Hélèna - Elle est la sœur avec le ruban vert. Elle a le comportement le plus doux des triplés. Elle a également un amour pour la nourriture et les sucreries, ce qui lui pose parfois des problèmes.
 La Sorcière Camomille - C'est une sorcière qui s'ennuie toujours, malgré ses grands pouvoirs magiques. Elle sert en quelque sorte de gardienne non- officielle pour les triplées, mais quand elles commencent à agir de manière désordonnée, elle utilise sa magie pour envoyer les filles dans des histoires. Quoi qu'il en soit, elle n'utilise jamais la magie pour gêner directement les filles dans leurs aventures, bien qu'elle ait tendance à s'associer à l'antagoniste de chaque histoire. Malgré son rôle d'antagoniste, elle n'est pas un personnage maléfique et tient toujours parole pour ramener les filles sur leur terre.
 Le hibou : C'est le hibou de compagnie de la sorcière Camomille, un oiseau nerveux et sensible qui a besoin de café pour rester éveillé pendant la journée. Il agit généralement comme une voix de conscience et de bon sens pour son propriétaire.
-Les souris : trois souris qui accompagnent toujours les jumelles. Ils n'ont pas une grande participation à la série et sont généralement vus dans de petites scènes dans lesquelles ils parodient des éléments de l'histoire.
-Personnages secondaires
-Les parents des triplées : Le père et la mère des filles, qui chaque fois qu'elles parlent de leurs aventures, pensent que leurs filles ont une grande imagination.
+Les souris : trois souris qui accompagnent toujours les jumelles. Ils n'ont pas une grande participation à la série et sont généralement vus dans de petites scènes dans lesquelles ils parodient des éléments de l'histoire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les parents des triplées : Le père et la mère des filles, qui chaque fois qu'elles parlent de leurs aventures, pensent que leurs filles ont une grande imagination.
 La professeur : Professeur des jumelles à l'école.
 La grand-mère : La grand-mère des filles, qui vit dans une maison à la campagne, où ses petites-filles se rendent habituellement.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Les_Trois_Petites_S%C5%93urs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>001. Le Petit Poucet
 002. Blanche Neige
@@ -709,24 +864,160 @@
 101. Les Pirates
 102. Holet le follet
 103. L'homme invisible
-104. La Fête d'Anniversaire
-Voix catalan
-Teresa Soler : Anna
+104. La Fête d'Anniversaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Voix catalan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Teresa Soler : Anna
 Mònica Padrós : Thérésa
 Marta Barbarà : Hélèna
-Elsa Fabregas : la sorcière Camomille
-Voix françaises
-Patricia Legrand : Anna
+Elsa Fabregas : la sorcière Camomille</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Patricia Legrand : Anna
 Annabelle Roux : Thérésa
 Sylvie Jacob : Hélèna
-Blanche Ravalec : la sorcière Camomille
-Voix québécoises
-Charlotte Bernard : Anna
+Blanche Ravalec : la sorcière Camomille</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Charlotte Bernard : Anna
 Aline Pinsonneault : Louisa / Teresa
 Johanne Garneau : Helena / Nelly
-Johanne Léveillé : Camomille la sorcière
-Série dérivée
-La Sorcière Camomille</t>
+Johanne Léveillé : Camomille la sorcière</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Trois_Petites_Sœurs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Trois_Petites_S%C5%93urs</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série dérivée</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La Sorcière Camomille</t>
         </is>
       </c>
     </row>
